--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.397441</v>
+        <v>0.250631</v>
       </c>
       <c r="H2">
-        <v>4.192323</v>
+        <v>0.751893</v>
       </c>
       <c r="I2">
-        <v>0.6676161521996591</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="J2">
-        <v>0.6676161521996592</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N2">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O2">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P2">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q2">
-        <v>37.49448467092433</v>
+        <v>6.358878484899667</v>
       </c>
       <c r="R2">
-        <v>337.450362038319</v>
+        <v>57.229906364097</v>
       </c>
       <c r="S2">
-        <v>0.3950055687427678</v>
+        <v>0.1530973711717641</v>
       </c>
       <c r="T2">
-        <v>0.3950055687427678</v>
+        <v>0.1530973711717641</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.397441</v>
+        <v>0.250631</v>
       </c>
       <c r="H3">
-        <v>4.192323</v>
+        <v>0.751893</v>
       </c>
       <c r="I3">
-        <v>0.6676161521996591</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="J3">
-        <v>0.6676161521996592</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>30.659075</v>
       </c>
       <c r="O3">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P3">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q3">
-        <v>14.28141614235834</v>
+        <v>2.561371542108334</v>
       </c>
       <c r="R3">
-        <v>128.532745281225</v>
+        <v>23.052343878975</v>
       </c>
       <c r="S3">
-        <v>0.1504551657470568</v>
+        <v>0.06166798919371718</v>
       </c>
       <c r="T3">
-        <v>0.1504551657470568</v>
+        <v>0.06166798919371718</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.397441</v>
+        <v>0.250631</v>
       </c>
       <c r="H4">
-        <v>4.192323</v>
+        <v>0.751893</v>
       </c>
       <c r="I4">
-        <v>0.6676161521996591</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="J4">
-        <v>0.6676161521996592</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>24.89228</v>
       </c>
       <c r="O4">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P4">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q4">
-        <v>11.59516421849333</v>
+        <v>2.079592342893333</v>
       </c>
       <c r="R4">
-        <v>104.35647796644</v>
+        <v>18.71633108604</v>
       </c>
       <c r="S4">
-        <v>0.1221554177098345</v>
+        <v>0.05006859646114509</v>
       </c>
       <c r="T4">
-        <v>0.1221554177098345</v>
+        <v>0.05006859646114509</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.7043240000000001</v>
       </c>
       <c r="I5">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="J5">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N5">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O5">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P5">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q5">
-        <v>6.299196274085777</v>
+        <v>5.956579898999556</v>
       </c>
       <c r="R5">
-        <v>56.69276646677201</v>
+        <v>53.60921909099601</v>
       </c>
       <c r="S5">
-        <v>0.06636222977074553</v>
+        <v>0.1434115663441229</v>
       </c>
       <c r="T5">
-        <v>0.06636222977074553</v>
+        <v>0.1434115663441229</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.7043240000000001</v>
       </c>
       <c r="I6">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="J6">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>30.659075</v>
       </c>
       <c r="O6">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P6">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q6">
         <v>2.399324704477778</v>
@@ -818,10 +818,10 @@
         <v>21.5939223403</v>
       </c>
       <c r="S6">
-        <v>0.02527696080660531</v>
+        <v>0.05776652372195999</v>
       </c>
       <c r="T6">
-        <v>0.02527696080660531</v>
+        <v>0.05776652372195999</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.7043240000000001</v>
       </c>
       <c r="I7">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="J7">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>24.89228</v>
       </c>
       <c r="O7">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P7">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q7">
         <v>1.948025579857778</v>
@@ -880,10 +880,10 @@
         <v>17.53223021872</v>
       </c>
       <c r="S7">
-        <v>0.02052251041321518</v>
+        <v>0.04690097411985424</v>
       </c>
       <c r="T7">
-        <v>0.02052251041321518</v>
+        <v>0.04690097411985424</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4609646666666667</v>
+        <v>0.4609646666666666</v>
       </c>
       <c r="H8">
         <v>1.382894</v>
       </c>
       <c r="I8">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="J8">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N8">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O8">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P8">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q8">
-        <v>12.36805892210911</v>
+        <v>11.69535413083622</v>
       </c>
       <c r="R8">
-        <v>111.312530298982</v>
+        <v>105.258187177526</v>
       </c>
       <c r="S8">
-        <v>0.1302978875866581</v>
+        <v>0.2815792087560404</v>
       </c>
       <c r="T8">
-        <v>0.1302978875866581</v>
+        <v>0.2815792087560404</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4609646666666667</v>
+        <v>0.4609646666666666</v>
       </c>
       <c r="H9">
         <v>1.382894</v>
       </c>
       <c r="I9">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="J9">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>30.659075</v>
       </c>
       <c r="O9">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P9">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q9">
-        <v>4.710916762561112</v>
+        <v>4.710916762561111</v>
       </c>
       <c r="R9">
         <v>42.39825086305</v>
       </c>
       <c r="S9">
-        <v>0.04962965543938536</v>
+        <v>0.1134207822762764</v>
       </c>
       <c r="T9">
-        <v>0.04962965543938535</v>
+        <v>0.1134207822762764</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4609646666666667</v>
+        <v>0.4609646666666666</v>
       </c>
       <c r="H10">
         <v>1.382894</v>
       </c>
       <c r="I10">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="J10">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>24.89228</v>
       </c>
       <c r="O10">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P10">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q10">
         <v>3.824820517591111</v>
@@ -1066,10 +1066,10 @@
         <v>34.42338465832</v>
       </c>
       <c r="S10">
-        <v>0.04029460378373135</v>
+        <v>0.09208698795511965</v>
       </c>
       <c r="T10">
-        <v>0.04029460378373134</v>
+        <v>0.09208698795511966</v>
       </c>
     </row>
   </sheetData>
